--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/WEST_VIRGINIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/WEST_VIRGINIA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C6">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C19">
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C28">
@@ -768,7 +768,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C29">
@@ -781,7 +781,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C30">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C31">
@@ -872,7 +872,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C37">
@@ -903,7 +903,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C39">
@@ -968,7 +968,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C44">
@@ -1025,7 +1025,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C48">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C62">
@@ -1253,7 +1253,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1266,7 +1266,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C65">
@@ -1466,7 +1466,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C80">
@@ -1554,7 +1554,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C86">
@@ -1642,7 +1642,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C92">
@@ -1785,41 +1785,6 @@
       </c>
       <c r="D102">
         <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/WEST_VIRGINIA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/WEST_VIRGINIA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapalapa</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1036,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1049,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tzintzuntzan</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Juan Juquila Mixes</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Miguel Quetzaltepec</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Santiago Amoltepec</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Santo Domingo Ixcatlán</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1508,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Matlapa</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1596,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1640,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -1653,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -1666,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -1679,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1692,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tamalín</t>
@@ -1705,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -1731,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1762,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
